--- a/biology/Zoologie/Crassigyrinus/Crassigyrinus.xlsx
+++ b/biology/Zoologie/Crassigyrinus/Crassigyrinus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Crassigyrinus scoticus
 Crassigyrinus est un genre éteint d'énigmatiques stégocéphales aquatiques carnivores, ayant vécu durant le Carbonifère inférieur (Viséen), entre 345 et 329 millions d'années, dans ce qui est actuellement l'Écosse et peut-être même l'Amérique du Nord. Une seule espèce est connue, Crassigyrinus scoticus, décrit par le zoologiste britannique David Meredith Seares Watson en 1926.
@@ -513,9 +525,11 @@
           <t>Découverte</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le spécimen holotype est décrit à l'origine sous le nom de Macromerium scoticum et ne possède pas un crâne complet. Cependant, avec les découvertes ultérieures, Crassigyrinus est maintenant connu à partir de trois crânes, dont l'un est en articulation et disposant d'un squelette assez complet. D'autres fossiles attribués incluent deux mâchoires inférieures incomplètes. Les restes de Crassigyrinus sont connus des archives fossiles datant du Carbonifère inférieur de l'actuel Écosse et peut-être même du village de Greer, situé en Virginie-Occidentale, aux États-Unis[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le spécimen holotype est décrit à l'origine sous le nom de Macromerium scoticum et ne possède pas un crâne complet. Cependant, avec les découvertes ultérieures, Crassigyrinus est maintenant connu à partir de trois crânes, dont l'un est en articulation et disposant d'un squelette assez complet. D'autres fossiles attribués incluent deux mâchoires inférieures incomplètes. Les restes de Crassigyrinus sont connus des archives fossiles datant du Carbonifère inférieur de l'actuel Écosse et peut-être même du village de Greer, situé en Virginie-Occidentale, aux États-Unis.
 </t>
         </is>
       </c>
@@ -544,12 +558,14 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Crassigyrinus a un corps profilé atteignant jusqu'à 2 mètres de long. Ses membres sont de taille très réduite et pratiquement inutiles, ce qui implique que l'animal est presque entièrement aquatique. Crassigyrinus possède également des mâchoires exceptionnellement grandes, équipées de deux rangées de dents acérées, la deuxième rangée ayant une paire de crocs palatins. Des études montrent que Crassigyrinus aurait pu ouvrir sa mâchoire jusqu'à 60°, ce qui suggère qu'il devrait être un puissant prédateur ayant une forte morsure[2]. Cela suggère qu'il convient parfaitement à la capture de poissons et que l'animal serait probablement un prédateur rapide.
-Plusieurs crêtes osseuses épaissies courent le long de la ligne médiane dorsale du museau et entre les yeux, plusieurs paléontologues suggèrent qu'elles aidaient le crâne à résister au stress lorsque l'animal mordait une proie. Crassigyrinus possède de grands orbites, suggérant qu'il serait soit nocturne, soit vivant dans des eaux très troubles[3]. Il posséderait de grandes encoches otiques (spiraculaires), accueillant probablement un stigmate plutôt qu'une membrane tympanique[4].
-L'humérus de l'animal ne mesure que 35 millimètres de long, ce qui est relativement petit comparé au reste du corps de l'animal. Divers foramens sur les surfaces humérales sont très similaires à ceux observés chez Ichthyostega, Acanthostega et des poissons à nageoires lobées tels Eusthenopteron[5],[6].
-Les membres postérieurs sont beaucoup plus gros que les membres antérieurs et, dans le bassin, l'ilium manque de connexion osseuse à la colonne vertébrale, une caractéristique classique des tétrapodes aquatiques. La queue, connue seulement à partir de quelques fragments de vertèbres, est supposée d'être longue et comprimée latéralement[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Crassigyrinus a un corps profilé atteignant jusqu'à 2 mètres de long. Ses membres sont de taille très réduite et pratiquement inutiles, ce qui implique que l'animal est presque entièrement aquatique. Crassigyrinus possède également des mâchoires exceptionnellement grandes, équipées de deux rangées de dents acérées, la deuxième rangée ayant une paire de crocs palatins. Des études montrent que Crassigyrinus aurait pu ouvrir sa mâchoire jusqu'à 60°, ce qui suggère qu'il devrait être un puissant prédateur ayant une forte morsure. Cela suggère qu'il convient parfaitement à la capture de poissons et que l'animal serait probablement un prédateur rapide.
+Plusieurs crêtes osseuses épaissies courent le long de la ligne médiane dorsale du museau et entre les yeux, plusieurs paléontologues suggèrent qu'elles aidaient le crâne à résister au stress lorsque l'animal mordait une proie. Crassigyrinus possède de grands orbites, suggérant qu'il serait soit nocturne, soit vivant dans des eaux très troubles. Il posséderait de grandes encoches otiques (spiraculaires), accueillant probablement un stigmate plutôt qu'une membrane tympanique.
+L'humérus de l'animal ne mesure que 35 millimètres de long, ce qui est relativement petit comparé au reste du corps de l'animal. Divers foramens sur les surfaces humérales sont très similaires à ceux observés chez Ichthyostega, Acanthostega et des poissons à nageoires lobées tels Eusthenopteron,.
+Les membres postérieurs sont beaucoup plus gros que les membres antérieurs et, dans le bassin, l'ilium manque de connexion osseuse à la colonne vertébrale, une caractéristique classique des tétrapodes aquatiques. La queue, connue seulement à partir de quelques fragments de vertèbres, est supposée d'être longue et comprimée latéralement.
 </t>
         </is>
       </c>
@@ -580,10 +596,13 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Historique
-Crassigyrinus est un taxon très énigmatique, ce dernier ayant confus les paléontologues pendant des décennies en raison de ses caractéristiques partagées entre celui des poissons et des tétrapodes. Tout comme de nombreux autres tétrapodes énigmatiques, il est anciennement placé dans le groupe, aujourd'hui paraphylétique, des Labyrinthodontia[2]. Certains paléontologues considèrent cet animal comme l'un des tétrapode les plus basaux, tandis que l'immense majorité hésitent à le placer dans ce taxon, ces derniers préférant le classer dans le plus grand clade Stegocephalia[7],[8].
-Phylogénie
-Cladogramme basée selon Swartz en 2012[7] :
+          <t>Historique</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Crassigyrinus est un taxon très énigmatique, ce dernier ayant confus les paléontologues pendant des décennies en raison de ses caractéristiques partagées entre celui des poissons et des tétrapodes. Tout comme de nombreux autres tétrapodes énigmatiques, il est anciennement placé dans le groupe, aujourd'hui paraphylétique, des Labyrinthodontia. Certains paléontologues considèrent cet animal comme l'un des tétrapode les plus basaux, tandis que l'immense majorité hésitent à le placer dans ce taxon, ces derniers préférant le classer dans le plus grand clade Stegocephalia,.
 </t>
         </is>
       </c>
@@ -609,12 +628,51 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Classification</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Phylogénie</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cladogramme basée selon Swartz en 2012 :
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Crassigyrinus</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Crassigyrinus</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>Culture populaire</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Dans le cinquième épisode de la mini-série Prehistoric Park, mettant en scène la séquence du Carbonifère de l'actuel Écosse, Nigel Marven attrape puis relâche un Crassigyrinus dans un profond marécage[9].
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dans le cinquième épisode de la mini-série Prehistoric Park, mettant en scène la séquence du Carbonifère de l'actuel Écosse, Nigel Marven attrape puis relâche un Crassigyrinus dans un profond marécage.
 </t>
         </is>
       </c>
